--- a/Questions_to_solve.xlsx
+++ b/Questions_to_solve.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/allwin/Documents/GitHub/Dynamic_Programming/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Allwin\Documents\Important-Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D1A521-7D56-F84B-B8C6-F5115D462047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F51E19-BDA5-4FFA-A6AB-807888AFE00F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{9ECBBF44-6BC2-DF4A-90F0-7712912C1734}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{9ECBBF44-6BC2-DF4A-90F0-7712912C1734}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -371,7 +371,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -381,6 +381,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,7 +549,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -564,6 +570,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -882,16 +889,16 @@
   <dimension ref="B1:T40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="11" max="11" width="14.6640625" customWidth="1"/>
+    <col min="11" max="11" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:20" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="6" t="s">
         <v>27</v>
       </c>
@@ -928,7 +935,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
@@ -980,8 +987,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B4" s="20" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1"/>
@@ -1007,8 +1014,8 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B5" s="20" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1"/>
@@ -1034,8 +1041,8 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B6" s="20" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="1"/>
@@ -1061,8 +1068,8 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B7" s="3" t="s">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B7" s="20" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="1"/>
@@ -1086,8 +1093,8 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="2:20" ht="18" x14ac:dyDescent="0.2">
-      <c r="B8" s="3" t="s">
+    <row r="8" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B8" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1"/>
@@ -1116,8 +1123,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="2:20" ht="18" x14ac:dyDescent="0.2">
-      <c r="B9" s="3" t="s">
+    <row r="9" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B9" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="1"/>
@@ -1148,8 +1155,8 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B10" s="3" t="s">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B10" s="20" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="1"/>
@@ -1175,7 +1182,7 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1200,7 +1207,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
@@ -1232,8 +1239,8 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B13" s="3" t="s">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B13" s="20" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="1"/>
@@ -1254,8 +1261,8 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B14" s="3" t="s">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B14" s="20" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="1"/>
@@ -1271,8 +1278,8 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B15" s="3" t="s">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B15" s="20" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="1"/>
@@ -1288,8 +1295,8 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B16" s="3" t="s">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B16" s="20" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="1"/>
@@ -1300,8 +1307,8 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B17" s="3" t="s">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B17" s="20" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="1"/>
@@ -1312,7 +1319,7 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>14</v>
       </c>
@@ -1324,7 +1331,7 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>15</v>
       </c>
@@ -1336,7 +1343,7 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>16</v>
       </c>
@@ -1348,7 +1355,7 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>17</v>
       </c>
@@ -1361,7 +1368,7 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>18</v>
       </c>
@@ -1373,21 +1380,21 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="R23" s="3" t="s">
         <v>71</v>
       </c>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row r="24" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R24" s="3" t="s">
         <v>72</v>
       </c>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row r="25" spans="2:20" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="9" t="s">
         <v>77</v>
       </c>
@@ -1408,7 +1415,7 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
     </row>
-    <row r="26" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
         <v>0</v>
       </c>
@@ -1435,7 +1442,7 @@
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>78</v>
       </c>
@@ -1452,7 +1459,7 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
         <v>79</v>
       </c>
@@ -1467,7 +1474,7 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
     </row>
-    <row r="29" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
         <v>80</v>
       </c>
@@ -1484,7 +1491,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
         <v>81</v>
       </c>
@@ -1496,7 +1503,7 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1519,7 +1526,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="2:20" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
@@ -1555,7 +1562,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
         <v>82</v>
       </c>
@@ -1567,7 +1574,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
         <v>83</v>
       </c>
@@ -1579,7 +1586,7 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1589,12 +1596,12 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="2:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F37" s="2" t="s">
         <v>92</v>
       </c>
@@ -1606,21 +1613,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F38" s="3" t="s">
         <v>75</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F39" s="3" t="s">
         <v>93</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F40" s="3" t="s">
         <v>94</v>
       </c>

--- a/Questions_to_solve.xlsx
+++ b/Questions_to_solve.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Allwin\Documents\Important-Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F51E19-BDA5-4FFA-A6AB-807888AFE00F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C128AB-724F-43E7-9DCB-1473AF534164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{9ECBBF44-6BC2-DF4A-90F0-7712912C1734}"/>
   </bookViews>
@@ -371,7 +371,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -390,6 +390,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -549,7 +555,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -571,6 +577,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -888,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E51E3EE9-A70D-A94A-9E6D-6F3030F6E9C5}">
   <dimension ref="B1:T40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -993,12 +1000,12 @@
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="21" t="s">
         <v>19</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="21" t="s">
         <v>30</v>
       </c>
       <c r="K4" s="1"/>
@@ -1020,12 +1027,12 @@
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="21" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="21" t="s">
         <v>31</v>
       </c>
       <c r="K5" s="1"/>
@@ -1047,12 +1054,12 @@
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="21" t="s">
         <v>21</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="21" t="s">
         <v>32</v>
       </c>
       <c r="K6" s="1"/>
@@ -1074,7 +1081,7 @@
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="21" t="s">
         <v>22</v>
       </c>
       <c r="G7" s="1"/>
@@ -1161,7 +1168,7 @@
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="21" t="s">
         <v>23</v>
       </c>
       <c r="G10" s="1"/>
@@ -1186,7 +1193,7 @@
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="21" t="s">
         <v>24</v>
       </c>
       <c r="G11" s="1"/>
@@ -1218,7 +1225,7 @@
         <f>C12*4</f>
         <v>40</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="21" t="s">
         <v>25</v>
       </c>
       <c r="G12" s="1"/>
@@ -1245,7 +1252,7 @@
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="21" t="s">
         <v>26</v>
       </c>
       <c r="G13" s="1"/>
@@ -1320,7 +1327,7 @@
       <c r="T17" s="1"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="21" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="1"/>
@@ -1332,7 +1339,7 @@
       <c r="T18" s="1"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="1"/>
@@ -1344,7 +1351,7 @@
       <c r="T19" s="1"/>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="21" t="s">
         <v>16</v>
       </c>
       <c r="C20" s="1"/>
@@ -1356,7 +1363,7 @@
       <c r="T20" s="1"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="21" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="1"/>
@@ -1369,7 +1376,7 @@
       <c r="T21" s="1"/>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="21" t="s">
         <v>18</v>
       </c>
       <c r="C22" s="1"/>

--- a/Questions_to_solve.xlsx
+++ b/Questions_to_solve.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Allwin\Documents\Important-Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C128AB-724F-43E7-9DCB-1473AF534164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92393116-04CC-4CEA-8ADE-8F488CCF6CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{9ECBBF44-6BC2-DF4A-90F0-7712912C1734}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="103">
   <si>
     <t>Easy</t>
   </si>
@@ -325,6 +325,15 @@
   </si>
   <si>
     <t>Q/day</t>
+  </si>
+  <si>
+    <t>Remaining</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Target</t>
   </si>
 </sst>
 </file>
@@ -895,8 +904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E51E3EE9-A70D-A94A-9E6D-6F3030F6E9C5}">
   <dimension ref="B1:T40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="F22" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1010,7 +1019,7 @@
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="21" t="s">
         <v>43</v>
       </c>
       <c r="O4" s="1"/>
@@ -1037,7 +1046,7 @@
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="21" t="s">
         <v>44</v>
       </c>
       <c r="O5" s="1"/>
@@ -1064,7 +1073,7 @@
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="N6" s="3" t="s">
+      <c r="N6" s="21" t="s">
         <v>45</v>
       </c>
       <c r="O6" s="1"/>
@@ -1086,12 +1095,12 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="21" t="s">
         <v>33</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-      <c r="N7" s="3" t="s">
+      <c r="N7" s="21" t="s">
         <v>46</v>
       </c>
       <c r="O7" s="1"/>
@@ -1109,12 +1118,12 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="21" t="s">
         <v>34</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="N8" s="3" t="s">
+      <c r="N8" s="21" t="s">
         <v>47</v>
       </c>
       <c r="O8" s="1"/>
@@ -1146,12 +1155,12 @@
         <f>4*G9</f>
         <v>16</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="21" t="s">
         <v>35</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="N9" s="3" t="s">
+      <c r="N9" s="21" t="s">
         <v>48</v>
       </c>
       <c r="O9" s="1"/>
@@ -1173,12 +1182,12 @@
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="21" t="s">
         <v>36</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="N10" s="3" t="s">
+      <c r="N10" s="21" t="s">
         <v>49</v>
       </c>
       <c r="O10" s="1"/>
@@ -1198,12 +1207,12 @@
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="21" t="s">
         <v>37</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="N11" s="3" t="s">
+      <c r="N11" s="21" t="s">
         <v>50</v>
       </c>
       <c r="O11" s="1"/>
@@ -1230,12 +1239,12 @@
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="21" t="s">
         <v>38</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="N12" s="3" t="s">
+      <c r="N12" s="21" t="s">
         <v>51</v>
       </c>
       <c r="O12" s="1"/>
@@ -1257,7 +1266,7 @@
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="J13" s="3" t="s">
+      <c r="J13" s="21" t="s">
         <v>39</v>
       </c>
       <c r="K13" s="1"/>
@@ -1274,7 +1283,7 @@
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="21" t="s">
         <v>40</v>
       </c>
       <c r="K14" s="1"/>
@@ -1291,7 +1300,7 @@
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="J15" s="3" t="s">
+      <c r="J15" s="21" t="s">
         <v>41</v>
       </c>
       <c r="K15" s="1"/>
@@ -1569,7 +1578,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
         <v>82</v>
       </c>
@@ -1580,8 +1589,15 @@
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="K33" t="s">
+        <v>100</v>
+      </c>
+      <c r="L33">
+        <f>D3+D12+H3+H9+L3+4</f>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
         <v>83</v>
       </c>
@@ -1592,8 +1608,19 @@
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="L34" t="s">
+        <v>101</v>
+      </c>
+      <c r="M34">
+        <f>M32-L33-24</f>
+        <v>156</v>
+      </c>
+      <c r="N34">
+        <f>M34/16</f>
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1602,13 +1629,20 @@
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="L35" t="s">
+        <v>102</v>
+      </c>
+      <c r="M35">
+        <f>M34/20</f>
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F37" s="2" t="s">
         <v>92</v>
       </c>
@@ -1620,21 +1654,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="F38" s="3" t="s">
         <v>75</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="F39" s="3" t="s">
         <v>93</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="F40" s="3" t="s">
         <v>94</v>
       </c>

--- a/Questions_to_solve.xlsx
+++ b/Questions_to_solve.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Allwin\Documents\Important-Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92393116-04CC-4CEA-8ADE-8F488CCF6CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E40C36-0916-4F0F-B506-E5CF902D1E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{9ECBBF44-6BC2-DF4A-90F0-7712912C1734}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="103">
   <si>
     <t>Easy</t>
   </si>
@@ -312,28 +312,28 @@
     <t>Solve the Sudoku</t>
   </si>
   <si>
-    <t xml:space="preserve">Total </t>
-  </si>
-  <si>
     <t>pts</t>
   </si>
   <si>
-    <t>Questions</t>
-  </si>
-  <si>
-    <t>pts/day</t>
-  </si>
-  <si>
-    <t>Q/day</t>
-  </si>
-  <si>
-    <t>Remaining</t>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>Target</t>
+    <t>Stack using two queues</t>
+  </si>
+  <si>
+    <t>Queue using stack</t>
+  </si>
+  <si>
+    <t>Ternary Search</t>
+  </si>
+  <si>
+    <t>Binary Heap Operations</t>
+  </si>
+  <si>
+    <t>LRU cache</t>
+  </si>
+  <si>
+    <t>Trie | (Insert and Search)</t>
+  </si>
+  <si>
+    <t>Design</t>
   </si>
 </sst>
 </file>
@@ -380,7 +380,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -405,8 +405,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -430,10 +436,23 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -451,19 +470,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -476,84 +482,12 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -568,25 +502,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -904,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E51E3EE9-A70D-A94A-9E6D-6F3030F6E9C5}">
   <dimension ref="B1:T40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F22" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -915,192 +857,192 @@
   <sheetData>
     <row r="1" spans="2:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="J2" s="6" t="s">
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="N2" s="9" t="s">
+      <c r="K2" s="6"/>
+      <c r="L2" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="N2" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="O2" s="7"/>
-      <c r="P2" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="R2" s="9" t="s">
+      <c r="O2" s="6"/>
+      <c r="P2" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="R2" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="S2" s="7"/>
-      <c r="T2" s="8" t="s">
-        <v>96</v>
+      <c r="S2" s="6"/>
+      <c r="T2" s="7" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>7</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <f>C3*2</f>
         <v>14</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <v>4</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <f>G3*2</f>
         <v>8</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="4">
         <v>12</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="4">
         <f>K3*4</f>
         <v>48</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3" s="4">
         <v>9</v>
       </c>
-      <c r="P3" s="5">
+      <c r="P3" s="4">
         <f>O3*4</f>
         <v>36</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="R3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="S3" s="5">
+      <c r="S3" s="4">
         <v>3</v>
       </c>
-      <c r="T3" s="5">
+      <c r="T3" s="4">
         <f>S3*2</f>
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="11" t="s">
         <v>19</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="J4" s="21" t="s">
+      <c r="J4" s="11" t="s">
         <v>30</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="N4" s="21" t="s">
+      <c r="N4" s="11" t="s">
         <v>43</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
-      <c r="R4" s="3" t="s">
+      <c r="R4" s="11" t="s">
         <v>54</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="11" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="J5" s="21" t="s">
+      <c r="J5" s="11" t="s">
         <v>31</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="N5" s="21" t="s">
+      <c r="N5" s="11" t="s">
         <v>44</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
-      <c r="R5" s="3" t="s">
+      <c r="R5" s="11" t="s">
         <v>55</v>
       </c>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="11" t="s">
         <v>21</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="J6" s="21" t="s">
+      <c r="J6" s="11" t="s">
         <v>32</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="N6" s="21" t="s">
+      <c r="N6" s="11" t="s">
         <v>45</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
-      <c r="R6" s="3" t="s">
+      <c r="R6" s="11" t="s">
         <v>56</v>
       </c>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="11" t="s">
         <v>22</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="J7" s="21" t="s">
+      <c r="J7" s="11" t="s">
         <v>33</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-      <c r="N7" s="21" t="s">
+      <c r="N7" s="11" t="s">
         <v>46</v>
       </c>
       <c r="O7" s="1"/>
@@ -1110,7 +1052,7 @@
       <c r="T7" s="1"/>
     </row>
     <row r="8" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1"/>
@@ -1118,12 +1060,12 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="J8" s="21" t="s">
+      <c r="J8" s="11" t="s">
         <v>34</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="N8" s="21" t="s">
+      <c r="N8" s="11" t="s">
         <v>47</v>
       </c>
       <c r="O8" s="1"/>
@@ -1140,7 +1082,7 @@
       </c>
     </row>
     <row r="9" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="1"/>
@@ -1155,44 +1097,44 @@
         <f>4*G9</f>
         <v>16</v>
       </c>
-      <c r="J9" s="21" t="s">
+      <c r="J9" s="11" t="s">
         <v>35</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="N9" s="21" t="s">
+      <c r="N9" s="11" t="s">
         <v>48</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
-      <c r="R9" s="3" t="s">
+      <c r="R9" s="11" t="s">
         <v>57</v>
       </c>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="11" t="s">
         <v>23</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="J10" s="21" t="s">
+      <c r="J10" s="11" t="s">
         <v>36</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="N10" s="21" t="s">
+      <c r="N10" s="11" t="s">
         <v>49</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
-      <c r="R10" s="3" t="s">
+      <c r="R10" s="11" t="s">
         <v>58</v>
       </c>
       <c r="S10" s="1"/>
@@ -1202,22 +1144,22 @@
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="11" t="s">
         <v>24</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="J11" s="21" t="s">
+      <c r="J11" s="11" t="s">
         <v>37</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="N11" s="21" t="s">
+      <c r="N11" s="11" t="s">
         <v>50</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
-      <c r="R11" s="3" t="s">
+      <c r="R11" s="11" t="s">
         <v>59</v>
       </c>
       <c r="S11" s="1"/>
@@ -1234,249 +1176,270 @@
         <f>C12*4</f>
         <v>40</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="11" t="s">
         <v>25</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="J12" s="21" t="s">
+      <c r="J12" s="11" t="s">
         <v>38</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="N12" s="21" t="s">
+      <c r="N12" s="11" t="s">
         <v>51</v>
       </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
-      <c r="R12" s="3" t="s">
+      <c r="R12" s="11" t="s">
         <v>60</v>
       </c>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="11" t="s">
         <v>26</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="J13" s="21" t="s">
+      <c r="J13" s="11" t="s">
         <v>39</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="R13" s="3" t="s">
+      <c r="R13" s="11" t="s">
         <v>61</v>
       </c>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="J14" s="21" t="s">
+      <c r="J14" s="11" t="s">
         <v>40</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="R14" s="3" t="s">
+      <c r="R14" s="11" t="s">
         <v>62</v>
       </c>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="J15" s="21" t="s">
+      <c r="J15" s="11" t="s">
         <v>41</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-      <c r="R15" s="3" t="s">
+      <c r="R15" s="11" t="s">
         <v>63</v>
       </c>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="R16" s="3" t="s">
+      <c r="R16" s="11" t="s">
         <v>64</v>
       </c>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="R17" s="3" t="s">
+      <c r="R17" s="11" t="s">
         <v>65</v>
       </c>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="11" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="R18" s="3" t="s">
+      <c r="R18" s="11" t="s">
         <v>66</v>
       </c>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="R19" s="3" t="s">
+      <c r="R19" s="11" t="s">
         <v>67</v>
       </c>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="R20" s="3" t="s">
+      <c r="R20" s="11" t="s">
         <v>68</v>
       </c>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="F21" s="10"/>
-      <c r="R21" s="3" t="s">
+      <c r="F21" s="9"/>
+      <c r="R21" s="11" t="s">
         <v>69</v>
       </c>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="R22" s="3" t="s">
+      <c r="R22" s="11" t="s">
         <v>70</v>
       </c>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="R23" s="3" t="s">
+      <c r="R23" s="11" t="s">
         <v>71</v>
       </c>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
     </row>
     <row r="24" spans="2:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R24" s="3" t="s">
+      <c r="R24" s="11" t="s">
         <v>72</v>
       </c>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
     </row>
     <row r="25" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F25" s="9" t="s">
+      <c r="C25" s="6"/>
+      <c r="D25" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F25" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="G25" s="7"/>
-      <c r="H25" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="R25" s="3" t="s">
+      <c r="G25" s="6"/>
+      <c r="H25" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K25" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="R25" s="11" t="s">
         <v>73</v>
       </c>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
     </row>
     <row r="26" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="4">
         <v>4</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="4">
         <f>C26*2</f>
         <v>8</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="4">
         <v>1</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26" s="4">
         <f>G26*2</f>
         <v>2</v>
       </c>
-      <c r="R26" s="3" t="s">
+      <c r="K26" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
+        <v>2</v>
+      </c>
+      <c r="M26" s="1">
+        <v>4</v>
+      </c>
+      <c r="R26" s="11" t="s">
         <v>74</v>
       </c>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
+    <row r="27" spans="2:20" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B27" s="11" t="s">
         <v>78</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="11" t="s">
         <v>85</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-      <c r="R27" s="3" t="s">
+      <c r="K27" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="R27" s="11" t="s">
         <v>75</v>
       </c>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B28" s="3" t="s">
+    <row r="28" spans="2:20" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B28" s="11" t="s">
         <v>79</v>
       </c>
       <c r="C28" s="1"/>
@@ -1484,14 +1447,19 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="R28" s="3" t="s">
+      <c r="K28" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="R28" s="11" t="s">
         <v>76</v>
       </c>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
     </row>
     <row r="29" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="11" t="s">
         <v>80</v>
       </c>
       <c r="C29" s="1"/>
@@ -1506,43 +1474,55 @@
         <f>G29*4</f>
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="2:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="3" t="s">
+      <c r="K29" s="18"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+    </row>
+    <row r="30" spans="2:20" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="11" t="s">
         <v>81</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="11" t="s">
         <v>86</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="2:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J30" s="9"/>
+      <c r="K30" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="L30" s="1">
+        <v>4</v>
+      </c>
+      <c r="M30" s="1">
+        <v>16</v>
+      </c>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+    </row>
+    <row r="31" spans="2:20" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="11" t="s">
         <v>87</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="M31" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="N31" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="O31" s="14" t="s">
+      <c r="J31" s="9"/>
+      <c r="K31" s="17" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="32" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="9"/>
+    </row>
+    <row r="32" spans="2:20" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
@@ -1553,96 +1533,82 @@
         <f>C32*2</f>
         <v>4</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="11" t="s">
         <v>88</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
+      <c r="J32" s="9"/>
       <c r="K32" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="L32" s="11">
-        <f>C3+C12+G3+G9+K3+O3+S3+S8+C26+C32+G26+G29+G37</f>
-        <v>85</v>
-      </c>
-      <c r="M32" s="16">
-        <f>D3+D12+H3+H9+L3+P3+T3+T8+D26+D32+H26+H29+H37</f>
-        <v>310</v>
-      </c>
-      <c r="N32" s="18">
-        <f>L32/25</f>
-        <v>3.4</v>
-      </c>
-      <c r="O32" s="12">
-        <f>M32/25</f>
-        <v>12.4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B33" s="11" t="s">
         <v>82</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="11" t="s">
         <v>89</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
-      <c r="K33" t="s">
+      <c r="J33" s="9"/>
+      <c r="K33" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="L33">
-        <f>D3+D12+H3+H9+L3+4</f>
-        <v>130</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="3" t="s">
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+    </row>
+    <row r="34" spans="2:16" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B34" s="11" t="s">
         <v>83</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="11" t="s">
         <v>90</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
-      <c r="L34" t="s">
+      <c r="J34" s="9"/>
+      <c r="K34" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="M34">
-        <f>M32-L33-24</f>
-        <v>156</v>
-      </c>
-      <c r="N34">
-        <f>M34/16</f>
-        <v>9.75</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="11" t="s">
         <v>91</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
-      <c r="L35" t="s">
-        <v>102</v>
-      </c>
       <c r="M35">
-        <f>M34/20</f>
-        <v>7.8</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F37" s="2" t="s">
         <v>92</v>
       </c>
@@ -1654,22 +1620,22 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="F38" s="3" t="s">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F38" s="10" t="s">
         <v>75</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="F39" s="3" t="s">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F39" s="10" t="s">
         <v>93</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="F40" s="3" t="s">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F40" s="10" t="s">
         <v>94</v>
       </c>
       <c r="G40" s="1"/>
@@ -1762,7 +1728,14 @@
     <hyperlink ref="F38" r:id="rId83" display="https://practice.geeksforgeeks.org/problems/find-all-possible-palindromic-partitions-of-a-string/1/" xr:uid="{DDFFD9BB-8988-A942-A213-9BAAC88DFA93}"/>
     <hyperlink ref="F39" r:id="rId84" display="https://practice.geeksforgeeks.org/problems/n-queen-problem0315/1" xr:uid="{4CE14CE6-E6A9-2042-A754-55A3EB65B012}"/>
     <hyperlink ref="F40" r:id="rId85" display="https://practice.geeksforgeeks.org/problems/solve-the-sudoku-1587115621/1" xr:uid="{2F02D78D-5552-764C-B84C-E2C5BE493951}"/>
+    <hyperlink ref="K27" r:id="rId86" display="https://practice.geeksforgeeks.org/problems/stack-using-two-queues/1" xr:uid="{1B12CEFD-C4A0-4C7A-8DA5-997055ED73E9}"/>
+    <hyperlink ref="K28" r:id="rId87" display="https://practice.geeksforgeeks.org/problems/Queue-using-stack/1" xr:uid="{20DD479B-201C-40A2-8BC2-118BAC4E7A72}"/>
+    <hyperlink ref="K31" r:id="rId88" display="https://practice.geeksforgeeks.org/problems/3d27d4683c121c1f152ee8f41279255dc4430cf6/1/" xr:uid="{54DFD9FA-EC1B-483F-BA08-AB0A64C61B33}"/>
+    <hyperlink ref="K32" r:id="rId89" display="https://practice.geeksforgeeks.org/problems/operations-on-binary-min-heap/1" xr:uid="{E57AC9B7-7FA0-4E9B-9C75-8BC7BE37806B}"/>
+    <hyperlink ref="K33" r:id="rId90" display="https://practice.geeksforgeeks.org/problems/lru-cache/1" xr:uid="{452B7F13-C468-4A64-B336-90494DFBCB64}"/>
+    <hyperlink ref="K34" r:id="rId91" display="https://practice.geeksforgeeks.org/problems/trie-insert-and-search0651/1" xr:uid="{441F1A25-12D7-4F46-AE86-DDB28AA02484}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId92"/>
 </worksheet>
 </file>